--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -88,6 +88,9 @@
   <si>
     <t>보니토</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트이름</t>
   </si>
 </sst>
 </file>
@@ -423,25 +426,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -458,10 +461,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -478,10 +481,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -498,10 +501,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -513,6 +516,26 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -91,13 +91,107 @@
   </si>
   <si>
     <t>테스트이름</t>
+  </si>
+  <si>
+    <t>고쟁이 아이꽃 7</t>
+  </si>
+  <si>
+    <t>벨로아고쟁이 핑크 7</t>
+  </si>
+  <si>
+    <t>cherish_0ri 로하맘</t>
+  </si>
+  <si>
+    <t>고쟁이 리본 5</t>
+  </si>
+  <si>
+    <t>do_do_20.23 도아맘</t>
+  </si>
+  <si>
+    <t>목폴라 크림 5</t>
+  </si>
+  <si>
+    <t>heezeros 설하맘 / 톡완</t>
+  </si>
+  <si>
+    <t xml:space="preserve">니트꽃머리핀왕예쁨 화이트 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">쉬폰리본핀색깔8가지 퍼플 </t>
+  </si>
+  <si>
+    <t>jia_mom190403 지아맘 /톡완</t>
+  </si>
+  <si>
+    <t>jia_mom190403 🤗지아맘</t>
+  </si>
+  <si>
+    <t>고쟁이 리본 13</t>
+  </si>
+  <si>
+    <t>joy__euni 세나</t>
+  </si>
+  <si>
+    <t>고쟁이 리본 9</t>
+  </si>
+  <si>
+    <t>s.yeony87 아윤맘</t>
+  </si>
+  <si>
+    <t>smileart_nail 현준맘</t>
+  </si>
+  <si>
+    <t>벨로아고쟁이 퍼플 7</t>
+  </si>
+  <si>
+    <t>woo.da__ 로아맘</t>
+  </si>
+  <si>
+    <t>ye___rinnnn 예린맘</t>
+  </si>
+  <si>
+    <t>고쟁이 리본 7</t>
+  </si>
+  <si>
+    <t>아오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b.ji_seo_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="-Apple-System"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> 서연맘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b.ji_seo_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="-Apple-System"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> 서연맘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +207,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Var(--Font-Family-System)"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="-Apple-System"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,12 +241,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -136,16 +279,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -426,121 +576,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>45458</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>45465</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45465</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -99,9 +99,6 @@
     <t>벨로아고쟁이 핑크 7</t>
   </si>
   <si>
-    <t>cherish_0ri 로하맘</t>
-  </si>
-  <si>
     <t>고쟁이 리본 5</t>
   </si>
   <si>
@@ -184,6 +181,10 @@
       </rPr>
       <t> 서연맘</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherish_0ri 로하맘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +580,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -693,10 +694,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>20</v>
@@ -713,10 +714,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>21</v>
@@ -733,13 +734,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>45465</v>
@@ -753,13 +754,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>45465</v>
@@ -773,13 +774,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45465</v>
@@ -793,13 +794,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45465</v>
@@ -813,13 +814,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45465</v>
@@ -833,13 +834,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45465</v>
@@ -853,13 +854,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45465</v>
@@ -873,13 +874,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45465</v>
@@ -893,13 +894,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="2">
         <v>45465</v>
@@ -913,10 +914,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>21</v>
@@ -933,13 +934,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D18" s="2">
         <v>45465</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -41,12 +41,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>홍길동</t>
-  </si>
-  <si>
-    <t>김철수</t>
-  </si>
-  <si>
     <t>어린이 옷</t>
   </si>
   <si>
@@ -59,10 +53,6 @@
     <t>배송완료</t>
   </si>
   <si>
-    <t>루나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,37 +144,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>b.ji_seo_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="-Apple-System"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> 서연맘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b.ji_seo_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="-Apple-System"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> 서연맘</t>
-    </r>
+    <t>루나d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cherish_0ri 로하맘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heezeros 설하맘 / 톡완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.ji_seo_ 서연맘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동+A2:G26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,24 +199,6 @@
     <font>
       <sz val="11"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Var(--Font-Family-System)"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="-Apple-System"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -242,36 +212,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -280,23 +226,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -579,377 +522,377 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="26.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="27.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="26.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45458</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45458</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D6" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="D7" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D8" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="D11" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="D13" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D14" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="D16" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45465</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>9</v>
+      <c r="D18" s="3">
+        <v>45465</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -53,126 +53,35 @@
     <t>배송완료</t>
   </si>
   <si>
-    <t>이거</t>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>고쟁이 아이꽃 7</t>
+  </si>
+  <si>
+    <t>고쟁이 리본 5</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>보니토</t>
+  </si>
+  <si>
+    <t>김철수</t>
+  </si>
+  <si>
+    <t>아오</t>
+  </si>
+  <si>
+    <t>cherish_0ri_로하맘</t>
+  </si>
+  <si>
+    <t>루나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄹㄴㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>보니토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보니토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트이름</t>
-  </si>
-  <si>
-    <t>고쟁이 아이꽃 7</t>
-  </si>
-  <si>
-    <t>벨로아고쟁이 핑크 7</t>
-  </si>
-  <si>
-    <t>고쟁이 리본 5</t>
-  </si>
-  <si>
-    <t>do_do_20.23 도아맘</t>
-  </si>
-  <si>
-    <t>목폴라 크림 5</t>
-  </si>
-  <si>
-    <t>heezeros 설하맘 / 톡완</t>
-  </si>
-  <si>
-    <t xml:space="preserve">니트꽃머리핀왕예쁨 화이트 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">쉬폰리본핀색깔8가지 퍼플 </t>
-  </si>
-  <si>
-    <t>jia_mom190403 지아맘 /톡완</t>
-  </si>
-  <si>
-    <t>jia_mom190403 🤗지아맘</t>
-  </si>
-  <si>
-    <t>고쟁이 리본 13</t>
-  </si>
-  <si>
-    <t>joy__euni 세나</t>
-  </si>
-  <si>
-    <t>고쟁이 리본 9</t>
-  </si>
-  <si>
-    <t>s.yeony87 아윤맘</t>
-  </si>
-  <si>
-    <t>smileart_nail 현준맘</t>
-  </si>
-  <si>
-    <t>벨로아고쟁이 퍼플 7</t>
-  </si>
-  <si>
-    <t>woo.da__ 로아맘</t>
-  </si>
-  <si>
-    <t>ye___rinnnn 예린맘</t>
-  </si>
-  <si>
-    <t>고쟁이 리본 7</t>
-  </si>
-  <si>
-    <t>아오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루나d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cherish_0ri 로하맘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heezeros 설하맘 / 톡완</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.ji_seo_ 서연맘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동+A2:G26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdfsdf</t>
+    <t>서연맘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +107,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -230,14 +148,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,19 +440,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="26.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -540,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -556,342 +476,102 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>45458</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>45465</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
+      <c r="D4" s="4">
+        <v>45465</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
+      <c r="D5" s="4">
+        <v>45465</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
         <v>45465</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45465</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="461">
   <si>
     <t>name</t>
   </si>
@@ -2182,6 +2182,30 @@
   </si>
   <si>
     <t>니트베레모 레드</t>
+  </si>
+  <si>
+    <t>승화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앤옳ㄴ애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라닝ㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ어루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴㄹ어ㅜㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2683,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F571"/>
+  <dimension ref="A1:F572"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A557" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H569" sqref="H569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14116,6 +14140,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="572" spans="1:6">
+      <c r="A572" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="466">
   <si>
     <t>name</t>
   </si>
@@ -2205,6 +2205,26 @@
   </si>
   <si>
     <t>ㄴㄹ어ㅜㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ올ㄴ애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱌ㅔㅓㄹㄴ어ㅑㅐㅔㄴㅇ러ㅑㅔ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂㄴㅇㄹ허ㅑㅐㅇㄹ햐ㅔㅓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅔㅓㅑㄴㅇ레ㅑㅐㅓㄴㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2707,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F572"/>
+  <dimension ref="A1:F573"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A557" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H569" sqref="H569"/>
+      <selection activeCell="G573" sqref="G573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14160,6 +14180,23 @@
         <v>460</v>
       </c>
     </row>
+    <row r="573" spans="1:6">
+      <c r="A573" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
